--- a/services/auditec/input/Auditec.xlsx
+++ b/services/auditec/input/Auditec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ma_digitalization\services\auditec\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35151373-6F61-40E7-95EB-B2E496914F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD84F2-703C-44D5-899E-67E6697DB25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7795,6 +7795,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7817,9 +7820,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8128,9 +8128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8190,220 +8190,220 @@
       <c r="A1" s="25" t="s">
         <v>2495</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AF1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AG1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AH1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="32" t="s">
+      <c r="AI1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="26" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AK1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="26" t="s">
+      <c r="AL1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="26" t="s">
+      <c r="AM1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="26" t="s">
+      <c r="AN1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AO1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AP1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AQ1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AR1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="26" t="s">
+      <c r="AS1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="26" t="s">
+      <c r="AT1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="26" t="s">
+      <c r="AU1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="26" t="s">
+      <c r="AV1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="26" t="s">
+      <c r="AW1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="26" t="s">
+      <c r="AX1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="26" t="s">
+      <c r="AY1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="26" t="s">
+      <c r="AZ1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="30" t="s">
+      <c r="BA1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="26" t="s">
+      <c r="BB1" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="28"/>
     </row>
     <row r="3" spans="1:54" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
@@ -9296,7 +9296,7 @@
       <c r="AA8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AB8" s="34" t="s">
+      <c r="AB8" s="26" t="s">
         <v>73</v>
       </c>
       <c r="AC8" s="8" t="s">
@@ -57848,7 +57848,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="B1:BB308" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="53">
-    <mergeCell ref="V1:V2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -57884,6 +57883,7 @@
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="BA1:BA2"/>
     <mergeCell ref="AV1:AV2"/>

--- a/services/auditec/input/Auditec.xlsx
+++ b/services/auditec/input/Auditec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ma_digitalization\services\auditec\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD84F2-703C-44D5-899E-67E6697DB25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD53DBA-7E7E-4744-9727-211FCB68CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14177" uniqueCount="2498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14178" uniqueCount="2499">
   <si>
     <t>Item</t>
   </si>
@@ -7527,6 +7527,9 @@
   </si>
   <si>
     <t>CAMINHÕES</t>
+  </si>
+  <si>
+    <t>MOTOS</t>
   </si>
 </sst>
 </file>
@@ -8130,7 +8133,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8406,6 +8409,9 @@
       <c r="BB2" s="28"/>
     </row>
     <row r="3" spans="1:54" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>2498</v>
+      </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
@@ -57869,6 +57875,8 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="Y1:Y2"/>
@@ -57883,6 +57891,8 @@
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="BA1:BA2"/>
@@ -57897,10 +57907,6 @@
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A308" xr:uid="{89964FA4-5277-4EF1-A30C-0069E71B4346}">

--- a/services/auditec/input/Auditec.xlsx
+++ b/services/auditec/input/Auditec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ma_digitalization\services\auditec\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD53DBA-7E7E-4744-9727-211FCB68CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC48C91C-B122-4ADD-9DAA-2663D712599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REALIZADAS" sheetId="1" r:id="rId1"/>
@@ -7529,7 +7529,7 @@
     <t>CAMINHÕES</t>
   </si>
   <si>
-    <t>MOTOS</t>
+    <t>MÁQUINAS PESADAS</t>
   </si>
 </sst>
 </file>
@@ -7801,28 +7801,28 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8133,7 +8133,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8193,220 +8193,220 @@
       <c r="A1" s="25" t="s">
         <v>2495</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AK1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AL1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AM1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AN1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AP1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="AR1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="27" t="s">
+      <c r="AS1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="27" t="s">
+      <c r="AT1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AU1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="27" t="s">
+      <c r="AV1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="27" t="s">
+      <c r="AW1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="AX1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="27" t="s">
+      <c r="AY1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BA1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="27" t="s">
+      <c r="BB1" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="30"/>
     </row>
     <row r="3" spans="1:54" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -57854,6 +57854,43 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="B1:BB308" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -57870,43 +57907,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AP2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A308" xr:uid="{89964FA4-5277-4EF1-A30C-0069E71B4346}">
